--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_208.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_208.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d111751-Reviews-Hotel_Bel_Air-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>762</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Hotel-Bel-Air.h34504.Hotel-Information?chkin=6%2F21%2F2018&amp;chkout=6%2F22%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528303126008&amp;cancellable=false&amp;regionId=2011&amp;vip=false&amp;c=d2930b0b-8ccd-417a-9f8b-a601c762d3d5&amp;mctc=9&amp;exp_dp=593.75&amp;exp_ts=1528303126586&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_208.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_208.xlsx
@@ -5967,7 +5967,7 @@
 We relaxed outside on the patio for hours in the spa pool and...I've never experienced a hotel quite like the Hotel Bel-Air. A friend and I flew to LA for Comic Con, before heading down to San Diego I scheduled an extra night in LA - I had been wanting to visit the Hotel Bel-Air since my first visit to LA many years ago. You can tell this hotel is in a league of it's own as you arrive at the valet and make your way over the bridge, everything is so serene and relaxing. I booked a Canyon Room (the idea of having my own private jacuzzi on the patio was too good to be true!). When I checked in I found we had been kindly upgraded to a Premier Canyon Room (room 268) free of charge. We were shown to our room and it was better than I could have imagined; The living room is spacious with a stunning floor-to-ceiling glass sliding door leading to the patio with a fire place, 2 sitting areas and the spa pool. The bedroom is large with a Bang &amp; Olufsen TV, high wooden ceiling a fantastic king bed, attached to the bedroom is the bathroom with double sinks, shower, large bath with TV and last but not least the most high-tech toilet I have ever encountered, you will have to try it yourself to find out... it's quite the treat!We relaxed outside on the patio for hours in the spa pool and by the fire place and never heard another soul whilst we were out there - pure bliss.My only regret is that I didn't have more time to spend in the hotel exploring the grounds and sampling the restaurant/pool.If I get the chance in future I will definitely be staying at the Hotel Bel-Air again, I cannot recommend it enough. My photos do not do it justice!More</t>
   </si>
   <si>
-    <t>DCYOUNG</t>
+    <t>Don Y</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d111751-r218972714-Hotel_Bel_Air-Los_Angeles_California.html</t>
@@ -11240,7 +11240,7 @@
         <v>5337</v>
       </c>
       <c r="B2" t="n">
-        <v>138136</v>
+        <v>169209</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -11370,7 +11370,7 @@
         <v>5337</v>
       </c>
       <c r="B4" t="n">
-        <v>138137</v>
+        <v>138141</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -11435,7 +11435,7 @@
         <v>5337</v>
       </c>
       <c r="B5" t="n">
-        <v>138138</v>
+        <v>169210</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -11506,7 +11506,7 @@
         <v>5337</v>
       </c>
       <c r="B6" t="n">
-        <v>138139</v>
+        <v>169211</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -11575,7 +11575,7 @@
         <v>5337</v>
       </c>
       <c r="B7" t="n">
-        <v>138140</v>
+        <v>169212</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -11636,7 +11636,7 @@
         <v>5337</v>
       </c>
       <c r="B8" t="n">
-        <v>138141</v>
+        <v>169213</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
@@ -11707,7 +11707,7 @@
         <v>5337</v>
       </c>
       <c r="B9" t="n">
-        <v>138142</v>
+        <v>169214</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
@@ -11902,7 +11902,7 @@
         <v>5337</v>
       </c>
       <c r="B12" t="n">
-        <v>138143</v>
+        <v>169215</v>
       </c>
       <c r="C12" t="s">
         <v>142</v>
@@ -11967,7 +11967,7 @@
         <v>5337</v>
       </c>
       <c r="B13" t="n">
-        <v>138144</v>
+        <v>169216</v>
       </c>
       <c r="C13" t="s">
         <v>152</v>
@@ -12032,7 +12032,7 @@
         <v>5337</v>
       </c>
       <c r="B14" t="n">
-        <v>138145</v>
+        <v>169217</v>
       </c>
       <c r="C14" t="s">
         <v>161</v>
@@ -12097,7 +12097,7 @@
         <v>5337</v>
       </c>
       <c r="B15" t="n">
-        <v>138146</v>
+        <v>169218</v>
       </c>
       <c r="C15" t="s">
         <v>170</v>
@@ -12162,7 +12162,7 @@
         <v>5337</v>
       </c>
       <c r="B16" t="n">
-        <v>138147</v>
+        <v>169219</v>
       </c>
       <c r="C16" t="s">
         <v>179</v>
@@ -12233,7 +12233,7 @@
         <v>5337</v>
       </c>
       <c r="B17" t="n">
-        <v>138148</v>
+        <v>169220</v>
       </c>
       <c r="C17" t="s">
         <v>185</v>
@@ -12302,7 +12302,7 @@
         <v>5337</v>
       </c>
       <c r="B18" t="n">
-        <v>138149</v>
+        <v>169221</v>
       </c>
       <c r="C18" t="s">
         <v>195</v>
@@ -12371,7 +12371,7 @@
         <v>5337</v>
       </c>
       <c r="B19" t="n">
-        <v>138150</v>
+        <v>169222</v>
       </c>
       <c r="C19" t="s">
         <v>202</v>
@@ -12440,7 +12440,7 @@
         <v>5337</v>
       </c>
       <c r="B20" t="n">
-        <v>138151</v>
+        <v>169223</v>
       </c>
       <c r="C20" t="s">
         <v>213</v>
@@ -12505,7 +12505,7 @@
         <v>5337</v>
       </c>
       <c r="B21" t="n">
-        <v>138152</v>
+        <v>169224</v>
       </c>
       <c r="C21" t="s">
         <v>222</v>
@@ -12570,7 +12570,7 @@
         <v>5337</v>
       </c>
       <c r="B22" t="n">
-        <v>138153</v>
+        <v>169225</v>
       </c>
       <c r="C22" t="s">
         <v>229</v>
@@ -12639,7 +12639,7 @@
         <v>5337</v>
       </c>
       <c r="B23" t="n">
-        <v>138154</v>
+        <v>169226</v>
       </c>
       <c r="C23" t="s">
         <v>238</v>
@@ -12777,7 +12777,7 @@
         <v>5337</v>
       </c>
       <c r="B25" t="n">
-        <v>138155</v>
+        <v>169227</v>
       </c>
       <c r="C25" t="s">
         <v>257</v>
@@ -12842,7 +12842,7 @@
         <v>5337</v>
       </c>
       <c r="B26" t="n">
-        <v>138156</v>
+        <v>169228</v>
       </c>
       <c r="C26" t="s">
         <v>266</v>
@@ -12907,7 +12907,7 @@
         <v>5337</v>
       </c>
       <c r="B27" t="n">
-        <v>138157</v>
+        <v>169229</v>
       </c>
       <c r="C27" t="s">
         <v>275</v>
@@ -12972,7 +12972,7 @@
         <v>5337</v>
       </c>
       <c r="B28" t="n">
-        <v>138158</v>
+        <v>169230</v>
       </c>
       <c r="C28" t="s">
         <v>282</v>
@@ -13037,7 +13037,7 @@
         <v>5337</v>
       </c>
       <c r="B29" t="n">
-        <v>138159</v>
+        <v>169231</v>
       </c>
       <c r="C29" t="s">
         <v>291</v>
@@ -13106,7 +13106,7 @@
         <v>5337</v>
       </c>
       <c r="B30" t="n">
-        <v>138160</v>
+        <v>169232</v>
       </c>
       <c r="C30" t="s">
         <v>300</v>
@@ -13242,7 +13242,7 @@
         <v>5337</v>
       </c>
       <c r="B32" t="n">
-        <v>138161</v>
+        <v>169233</v>
       </c>
       <c r="C32" t="s">
         <v>318</v>
@@ -13382,7 +13382,7 @@
         <v>5337</v>
       </c>
       <c r="B34" t="n">
-        <v>138162</v>
+        <v>169234</v>
       </c>
       <c r="C34" t="s">
         <v>338</v>
@@ -13447,7 +13447,7 @@
         <v>5337</v>
       </c>
       <c r="B35" t="n">
-        <v>138136</v>
+        <v>138141</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -13583,7 +13583,7 @@
         <v>5337</v>
       </c>
       <c r="B37" t="n">
-        <v>138163</v>
+        <v>169235</v>
       </c>
       <c r="C37" t="s">
         <v>364</v>
@@ -13654,7 +13654,7 @@
         <v>5337</v>
       </c>
       <c r="B38" t="n">
-        <v>138164</v>
+        <v>169236</v>
       </c>
       <c r="C38" t="s">
         <v>374</v>
@@ -13715,7 +13715,7 @@
         <v>5337</v>
       </c>
       <c r="B39" t="n">
-        <v>138165</v>
+        <v>169237</v>
       </c>
       <c r="C39" t="s">
         <v>383</v>
@@ -13786,7 +13786,7 @@
         <v>5337</v>
       </c>
       <c r="B40" t="n">
-        <v>138166</v>
+        <v>169238</v>
       </c>
       <c r="C40" t="s">
         <v>390</v>
@@ -13916,7 +13916,7 @@
         <v>5337</v>
       </c>
       <c r="B42" t="n">
-        <v>138167</v>
+        <v>169239</v>
       </c>
       <c r="C42" t="s">
         <v>408</v>
@@ -14058,7 +14058,7 @@
         <v>5337</v>
       </c>
       <c r="B44" t="n">
-        <v>138168</v>
+        <v>169240</v>
       </c>
       <c r="C44" t="s">
         <v>424</v>
@@ -14129,7 +14129,7 @@
         <v>5337</v>
       </c>
       <c r="B45" t="n">
-        <v>138169</v>
+        <v>169241</v>
       </c>
       <c r="C45" t="s">
         <v>433</v>
@@ -14200,7 +14200,7 @@
         <v>5337</v>
       </c>
       <c r="B46" t="n">
-        <v>138170</v>
+        <v>169242</v>
       </c>
       <c r="C46" t="s">
         <v>442</v>
@@ -14342,7 +14342,7 @@
         <v>5337</v>
       </c>
       <c r="B48" t="n">
-        <v>138171</v>
+        <v>169243</v>
       </c>
       <c r="C48" t="s">
         <v>460</v>
@@ -14411,7 +14411,7 @@
         <v>5337</v>
       </c>
       <c r="B49" t="n">
-        <v>138172</v>
+        <v>169244</v>
       </c>
       <c r="C49" t="s">
         <v>469</v>
@@ -14476,7 +14476,7 @@
         <v>5337</v>
       </c>
       <c r="B50" t="n">
-        <v>138173</v>
+        <v>169245</v>
       </c>
       <c r="C50" t="s">
         <v>477</v>
@@ -14541,7 +14541,7 @@
         <v>5337</v>
       </c>
       <c r="B51" t="n">
-        <v>138136</v>
+        <v>138141</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -14606,7 +14606,7 @@
         <v>5337</v>
       </c>
       <c r="B52" t="n">
-        <v>138174</v>
+        <v>169246</v>
       </c>
       <c r="C52" t="s">
         <v>493</v>
@@ -14675,7 +14675,7 @@
         <v>5337</v>
       </c>
       <c r="B53" t="n">
-        <v>138175</v>
+        <v>138195</v>
       </c>
       <c r="C53" t="s">
         <v>503</v>
@@ -14746,7 +14746,7 @@
         <v>5337</v>
       </c>
       <c r="B54" t="n">
-        <v>138176</v>
+        <v>169247</v>
       </c>
       <c r="C54" t="s">
         <v>512</v>
@@ -14811,7 +14811,7 @@
         <v>5337</v>
       </c>
       <c r="B55" t="n">
-        <v>138177</v>
+        <v>169248</v>
       </c>
       <c r="C55" t="s">
         <v>521</v>
@@ -14949,7 +14949,7 @@
         <v>5337</v>
       </c>
       <c r="B57" t="n">
-        <v>138178</v>
+        <v>169249</v>
       </c>
       <c r="C57" t="s">
         <v>539</v>
@@ -15014,7 +15014,7 @@
         <v>5337</v>
       </c>
       <c r="B58" t="n">
-        <v>138179</v>
+        <v>169250</v>
       </c>
       <c r="C58" t="s">
         <v>548</v>
@@ -15156,7 +15156,7 @@
         <v>5337</v>
       </c>
       <c r="B60" t="n">
-        <v>138180</v>
+        <v>169251</v>
       </c>
       <c r="C60" t="s">
         <v>567</v>
@@ -15290,7 +15290,7 @@
         <v>5337</v>
       </c>
       <c r="B62" t="n">
-        <v>138181</v>
+        <v>169252</v>
       </c>
       <c r="C62" t="s">
         <v>586</v>
@@ -15355,7 +15355,7 @@
         <v>5337</v>
       </c>
       <c r="B63" t="n">
-        <v>138182</v>
+        <v>169253</v>
       </c>
       <c r="C63" t="s">
         <v>595</v>
@@ -15420,7 +15420,7 @@
         <v>5337</v>
       </c>
       <c r="B64" t="n">
-        <v>138183</v>
+        <v>169254</v>
       </c>
       <c r="C64" t="s">
         <v>601</v>
@@ -15485,7 +15485,7 @@
         <v>5337</v>
       </c>
       <c r="B65" t="n">
-        <v>138184</v>
+        <v>169255</v>
       </c>
       <c r="C65" t="s">
         <v>610</v>
@@ -15625,7 +15625,7 @@
         <v>5337</v>
       </c>
       <c r="B67" t="n">
-        <v>138185</v>
+        <v>169256</v>
       </c>
       <c r="C67" t="s">
         <v>629</v>
@@ -15696,7 +15696,7 @@
         <v>5337</v>
       </c>
       <c r="B68" t="n">
-        <v>138186</v>
+        <v>169257</v>
       </c>
       <c r="C68" t="s">
         <v>638</v>
@@ -15765,7 +15765,7 @@
         <v>5337</v>
       </c>
       <c r="B69" t="n">
-        <v>138187</v>
+        <v>169258</v>
       </c>
       <c r="C69" t="s">
         <v>647</v>
@@ -15836,7 +15836,7 @@
         <v>5337</v>
       </c>
       <c r="B70" t="n">
-        <v>138188</v>
+        <v>169259</v>
       </c>
       <c r="C70" t="s">
         <v>657</v>
@@ -15901,7 +15901,7 @@
         <v>5337</v>
       </c>
       <c r="B71" t="n">
-        <v>138189</v>
+        <v>169260</v>
       </c>
       <c r="C71" t="s">
         <v>664</v>
@@ -16108,7 +16108,7 @@
         <v>5337</v>
       </c>
       <c r="B74" t="n">
-        <v>138190</v>
+        <v>169261</v>
       </c>
       <c r="C74" t="s">
         <v>692</v>
@@ -16173,7 +16173,7 @@
         <v>5337</v>
       </c>
       <c r="B75" t="n">
-        <v>138191</v>
+        <v>169262</v>
       </c>
       <c r="C75" t="s">
         <v>701</v>
@@ -16307,7 +16307,7 @@
         <v>5337</v>
       </c>
       <c r="B77" t="n">
-        <v>138192</v>
+        <v>169263</v>
       </c>
       <c r="C77" t="s">
         <v>718</v>
@@ -16376,7 +16376,7 @@
         <v>5337</v>
       </c>
       <c r="B78" t="n">
-        <v>138193</v>
+        <v>169264</v>
       </c>
       <c r="C78" t="s">
         <v>727</v>
@@ -16445,7 +16445,7 @@
         <v>5337</v>
       </c>
       <c r="B79" t="n">
-        <v>138194</v>
+        <v>169265</v>
       </c>
       <c r="C79" t="s">
         <v>736</v>
@@ -16516,7 +16516,7 @@
         <v>5337</v>
       </c>
       <c r="B80" t="n">
-        <v>138195</v>
+        <v>169266</v>
       </c>
       <c r="C80" t="s">
         <v>746</v>
@@ -16585,7 +16585,7 @@
         <v>5337</v>
       </c>
       <c r="B81" t="n">
-        <v>138196</v>
+        <v>169267</v>
       </c>
       <c r="C81" t="s">
         <v>755</v>
@@ -16654,7 +16654,7 @@
         <v>5337</v>
       </c>
       <c r="B82" t="n">
-        <v>138197</v>
+        <v>169268</v>
       </c>
       <c r="C82" t="s">
         <v>764</v>
@@ -16725,7 +16725,7 @@
         <v>5337</v>
       </c>
       <c r="B83" t="n">
-        <v>138198</v>
+        <v>169269</v>
       </c>
       <c r="C83" t="s">
         <v>774</v>
@@ -16790,7 +16790,7 @@
         <v>5337</v>
       </c>
       <c r="B84" t="n">
-        <v>138199</v>
+        <v>138200</v>
       </c>
       <c r="C84" t="s">
         <v>784</v>
@@ -16857,7 +16857,7 @@
         <v>5337</v>
       </c>
       <c r="B85" t="n">
-        <v>138200</v>
+        <v>169270</v>
       </c>
       <c r="C85" t="s">
         <v>790</v>
@@ -16993,7 +16993,7 @@
         <v>5337</v>
       </c>
       <c r="B87" t="n">
-        <v>138201</v>
+        <v>169271</v>
       </c>
       <c r="C87" t="s">
         <v>808</v>
@@ -17058,7 +17058,7 @@
         <v>5337</v>
       </c>
       <c r="B88" t="n">
-        <v>138202</v>
+        <v>169272</v>
       </c>
       <c r="C88" t="s">
         <v>816</v>
@@ -17123,7 +17123,7 @@
         <v>5337</v>
       </c>
       <c r="B89" t="n">
-        <v>138203</v>
+        <v>169273</v>
       </c>
       <c r="C89" t="s">
         <v>825</v>
@@ -17188,7 +17188,7 @@
         <v>5337</v>
       </c>
       <c r="B90" t="n">
-        <v>138204</v>
+        <v>169274</v>
       </c>
       <c r="C90" t="s">
         <v>834</v>
@@ -17259,7 +17259,7 @@
         <v>5337</v>
       </c>
       <c r="B91" t="n">
-        <v>138205</v>
+        <v>169275</v>
       </c>
       <c r="C91" t="s">
         <v>842</v>
@@ -17395,7 +17395,7 @@
         <v>5337</v>
       </c>
       <c r="B93" t="n">
-        <v>138206</v>
+        <v>169276</v>
       </c>
       <c r="C93" t="s">
         <v>855</v>
@@ -17460,7 +17460,7 @@
         <v>5337</v>
       </c>
       <c r="B94" t="n">
-        <v>138207</v>
+        <v>169277</v>
       </c>
       <c r="C94" t="s">
         <v>864</v>
@@ -17529,7 +17529,7 @@
         <v>5337</v>
       </c>
       <c r="B95" t="n">
-        <v>138208</v>
+        <v>169278</v>
       </c>
       <c r="C95" t="s">
         <v>871</v>
@@ -17598,7 +17598,7 @@
         <v>5337</v>
       </c>
       <c r="B96" t="n">
-        <v>138209</v>
+        <v>169279</v>
       </c>
       <c r="C96" t="s">
         <v>880</v>
@@ -17667,7 +17667,7 @@
         <v>5337</v>
       </c>
       <c r="B97" t="n">
-        <v>138210</v>
+        <v>169280</v>
       </c>
       <c r="C97" t="s">
         <v>889</v>
@@ -17801,7 +17801,7 @@
         <v>5337</v>
       </c>
       <c r="B99" t="n">
-        <v>138211</v>
+        <v>169281</v>
       </c>
       <c r="C99" t="s">
         <v>905</v>
@@ -17868,7 +17868,7 @@
         <v>5337</v>
       </c>
       <c r="B100" t="n">
-        <v>138212</v>
+        <v>169282</v>
       </c>
       <c r="C100" t="s">
         <v>910</v>
@@ -17933,7 +17933,7 @@
         <v>5337</v>
       </c>
       <c r="B101" t="n">
-        <v>138213</v>
+        <v>169283</v>
       </c>
       <c r="C101" t="s">
         <v>918</v>
@@ -18004,7 +18004,7 @@
         <v>5337</v>
       </c>
       <c r="B102" t="n">
-        <v>138214</v>
+        <v>169284</v>
       </c>
       <c r="C102" t="s">
         <v>925</v>
@@ -18065,7 +18065,7 @@
         <v>5337</v>
       </c>
       <c r="B103" t="n">
-        <v>138215</v>
+        <v>169285</v>
       </c>
       <c r="C103" t="s">
         <v>932</v>
@@ -18134,7 +18134,7 @@
         <v>5337</v>
       </c>
       <c r="B104" t="n">
-        <v>138216</v>
+        <v>169286</v>
       </c>
       <c r="C104" t="s">
         <v>941</v>
@@ -18339,7 +18339,7 @@
         <v>5337</v>
       </c>
       <c r="B107" t="n">
-        <v>138217</v>
+        <v>169287</v>
       </c>
       <c r="C107" t="s">
         <v>964</v>
@@ -18408,7 +18408,7 @@
         <v>5337</v>
       </c>
       <c r="B108" t="n">
-        <v>138218</v>
+        <v>169288</v>
       </c>
       <c r="C108" t="s">
         <v>971</v>
@@ -18477,7 +18477,7 @@
         <v>5337</v>
       </c>
       <c r="B109" t="n">
-        <v>138219</v>
+        <v>148667</v>
       </c>
       <c r="C109" t="s">
         <v>978</v>
@@ -18548,7 +18548,7 @@
         <v>5337</v>
       </c>
       <c r="B110" t="n">
-        <v>138220</v>
+        <v>138174</v>
       </c>
       <c r="C110" t="s">
         <v>988</v>
@@ -18613,7 +18613,7 @@
         <v>5337</v>
       </c>
       <c r="B111" t="n">
-        <v>138221</v>
+        <v>169289</v>
       </c>
       <c r="C111" t="s">
         <v>995</v>
@@ -18684,7 +18684,7 @@
         <v>5337</v>
       </c>
       <c r="B112" t="n">
-        <v>138222</v>
+        <v>169290</v>
       </c>
       <c r="C112" t="s">
         <v>1004</v>
@@ -18755,7 +18755,7 @@
         <v>5337</v>
       </c>
       <c r="B113" t="n">
-        <v>138223</v>
+        <v>169291</v>
       </c>
       <c r="C113" t="s">
         <v>1011</v>
@@ -19017,7 +19017,7 @@
         <v>5337</v>
       </c>
       <c r="B117" t="n">
-        <v>138224</v>
+        <v>169292</v>
       </c>
       <c r="C117" t="s">
         <v>1044</v>
@@ -19088,7 +19088,7 @@
         <v>5337</v>
       </c>
       <c r="B118" t="n">
-        <v>138225</v>
+        <v>169293</v>
       </c>
       <c r="C118" t="s">
         <v>1053</v>
@@ -19153,7 +19153,7 @@
         <v>5337</v>
       </c>
       <c r="B119" t="n">
-        <v>138226</v>
+        <v>169294</v>
       </c>
       <c r="C119" t="s">
         <v>1060</v>
@@ -19214,7 +19214,7 @@
         <v>5337</v>
       </c>
       <c r="B120" t="n">
-        <v>138227</v>
+        <v>169295</v>
       </c>
       <c r="C120" t="s">
         <v>1069</v>
@@ -19344,7 +19344,7 @@
         <v>5337</v>
       </c>
       <c r="B122" t="n">
-        <v>138228</v>
+        <v>169296</v>
       </c>
       <c r="C122" t="s">
         <v>1083</v>
@@ -19413,7 +19413,7 @@
         <v>5337</v>
       </c>
       <c r="B123" t="n">
-        <v>138229</v>
+        <v>169297</v>
       </c>
       <c r="C123" t="s">
         <v>1092</v>
@@ -19474,7 +19474,7 @@
         <v>5337</v>
       </c>
       <c r="B124" t="n">
-        <v>138230</v>
+        <v>169298</v>
       </c>
       <c r="C124" t="s">
         <v>1099</v>
@@ -19545,7 +19545,7 @@
         <v>5337</v>
       </c>
       <c r="B125" t="n">
-        <v>138231</v>
+        <v>169299</v>
       </c>
       <c r="C125" t="s">
         <v>1108</v>
@@ -19610,7 +19610,7 @@
         <v>5337</v>
       </c>
       <c r="B126" t="n">
-        <v>138232</v>
+        <v>169300</v>
       </c>
       <c r="C126" t="s">
         <v>1117</v>
@@ -19746,7 +19746,7 @@
         <v>5337</v>
       </c>
       <c r="B128" t="n">
-        <v>138233</v>
+        <v>169301</v>
       </c>
       <c r="C128" t="s">
         <v>1131</v>
@@ -19817,7 +19817,7 @@
         <v>5337</v>
       </c>
       <c r="B129" t="n">
-        <v>138234</v>
+        <v>169302</v>
       </c>
       <c r="C129" t="s">
         <v>1140</v>
@@ -20020,7 +20020,7 @@
         <v>5337</v>
       </c>
       <c r="B132" t="n">
-        <v>138235</v>
+        <v>169303</v>
       </c>
       <c r="C132" t="s">
         <v>1163</v>
@@ -20091,7 +20091,7 @@
         <v>5337</v>
       </c>
       <c r="B133" t="n">
-        <v>138236</v>
+        <v>169304</v>
       </c>
       <c r="C133" t="s">
         <v>1170</v>
@@ -20162,7 +20162,7 @@
         <v>5337</v>
       </c>
       <c r="B134" t="n">
-        <v>138237</v>
+        <v>169305</v>
       </c>
       <c r="C134" t="s">
         <v>1179</v>
@@ -20231,7 +20231,7 @@
         <v>5337</v>
       </c>
       <c r="B135" t="n">
-        <v>138238</v>
+        <v>169306</v>
       </c>
       <c r="C135" t="s">
         <v>1188</v>
@@ -20292,7 +20292,7 @@
         <v>5337</v>
       </c>
       <c r="B136" t="n">
-        <v>138239</v>
+        <v>169307</v>
       </c>
       <c r="C136" t="s">
         <v>1194</v>
@@ -20363,7 +20363,7 @@
         <v>5337</v>
       </c>
       <c r="B137" t="n">
-        <v>138240</v>
+        <v>169308</v>
       </c>
       <c r="C137" t="s">
         <v>1203</v>
@@ -20428,7 +20428,7 @@
         <v>5337</v>
       </c>
       <c r="B138" t="n">
-        <v>138241</v>
+        <v>169309</v>
       </c>
       <c r="C138" t="s">
         <v>1212</v>
@@ -20499,7 +20499,7 @@
         <v>5337</v>
       </c>
       <c r="B139" t="n">
-        <v>138242</v>
+        <v>169310</v>
       </c>
       <c r="C139" t="s">
         <v>1221</v>
@@ -20568,7 +20568,7 @@
         <v>5337</v>
       </c>
       <c r="B140" t="n">
-        <v>138243</v>
+        <v>169311</v>
       </c>
       <c r="C140" t="s">
         <v>1228</v>
@@ -20637,7 +20637,7 @@
         <v>5337</v>
       </c>
       <c r="B141" t="n">
-        <v>138244</v>
+        <v>169312</v>
       </c>
       <c r="C141" t="s">
         <v>1237</v>
@@ -20702,7 +20702,7 @@
         <v>5337</v>
       </c>
       <c r="B142" t="n">
-        <v>138245</v>
+        <v>169313</v>
       </c>
       <c r="C142" t="s">
         <v>1246</v>
@@ -20767,7 +20767,7 @@
         <v>5337</v>
       </c>
       <c r="B143" t="n">
-        <v>138246</v>
+        <v>169314</v>
       </c>
       <c r="C143" t="s">
         <v>1255</v>
@@ -20832,7 +20832,7 @@
         <v>5337</v>
       </c>
       <c r="B144" t="n">
-        <v>138247</v>
+        <v>169315</v>
       </c>
       <c r="C144" t="s">
         <v>1265</v>
@@ -20903,7 +20903,7 @@
         <v>5337</v>
       </c>
       <c r="B145" t="n">
-        <v>138248</v>
+        <v>169316</v>
       </c>
       <c r="C145" t="s">
         <v>1274</v>
@@ -20968,7 +20968,7 @@
         <v>5337</v>
       </c>
       <c r="B146" t="n">
-        <v>138249</v>
+        <v>169317</v>
       </c>
       <c r="C146" t="s">
         <v>1281</v>
@@ -21094,7 +21094,7 @@
         <v>5337</v>
       </c>
       <c r="B148" t="n">
-        <v>138250</v>
+        <v>169318</v>
       </c>
       <c r="C148" t="s">
         <v>1297</v>
@@ -21236,7 +21236,7 @@
         <v>5337</v>
       </c>
       <c r="B150" t="n">
-        <v>138251</v>
+        <v>169319</v>
       </c>
       <c r="C150" t="s">
         <v>1314</v>
@@ -21305,7 +21305,7 @@
         <v>5337</v>
       </c>
       <c r="B151" t="n">
-        <v>138252</v>
+        <v>169320</v>
       </c>
       <c r="C151" t="s">
         <v>1321</v>
@@ -21374,7 +21374,7 @@
         <v>5337</v>
       </c>
       <c r="B152" t="n">
-        <v>138253</v>
+        <v>169321</v>
       </c>
       <c r="C152" t="s">
         <v>1327</v>
@@ -21445,7 +21445,7 @@
         <v>5337</v>
       </c>
       <c r="B153" t="n">
-        <v>138254</v>
+        <v>169322</v>
       </c>
       <c r="C153" t="s">
         <v>1336</v>
@@ -21516,7 +21516,7 @@
         <v>5337</v>
       </c>
       <c r="B154" t="n">
-        <v>138255</v>
+        <v>138201</v>
       </c>
       <c r="C154" t="s">
         <v>1343</v>
@@ -21587,7 +21587,7 @@
         <v>5337</v>
       </c>
       <c r="B155" t="n">
-        <v>138256</v>
+        <v>169323</v>
       </c>
       <c r="C155" t="s">
         <v>1350</v>
@@ -21652,7 +21652,7 @@
         <v>5337</v>
       </c>
       <c r="B156" t="n">
-        <v>138257</v>
+        <v>169324</v>
       </c>
       <c r="C156" t="s">
         <v>1360</v>
@@ -21723,7 +21723,7 @@
         <v>5337</v>
       </c>
       <c r="B157" t="n">
-        <v>138258</v>
+        <v>169325</v>
       </c>
       <c r="C157" t="s">
         <v>1367</v>
@@ -21788,7 +21788,7 @@
         <v>5337</v>
       </c>
       <c r="B158" t="n">
-        <v>138259</v>
+        <v>169326</v>
       </c>
       <c r="C158" t="s">
         <v>1373</v>
@@ -21922,7 +21922,7 @@
         <v>5337</v>
       </c>
       <c r="B160" t="n">
-        <v>138260</v>
+        <v>169327</v>
       </c>
       <c r="C160" t="s">
         <v>1389</v>
@@ -22048,7 +22048,7 @@
         <v>5337</v>
       </c>
       <c r="B162" t="n">
-        <v>138261</v>
+        <v>169328</v>
       </c>
       <c r="C162" t="s">
         <v>1407</v>
@@ -22109,7 +22109,7 @@
         <v>5337</v>
       </c>
       <c r="B163" t="n">
-        <v>138262</v>
+        <v>169329</v>
       </c>
       <c r="C163" t="s">
         <v>1414</v>
@@ -22249,7 +22249,7 @@
         <v>5337</v>
       </c>
       <c r="B165" t="n">
-        <v>138263</v>
+        <v>169330</v>
       </c>
       <c r="C165" t="s">
         <v>1432</v>
@@ -22314,7 +22314,7 @@
         <v>5337</v>
       </c>
       <c r="B166" t="n">
-        <v>138264</v>
+        <v>169331</v>
       </c>
       <c r="C166" t="s">
         <v>1439</v>
@@ -22596,7 +22596,7 @@
         <v>5337</v>
       </c>
       <c r="B170" t="n">
-        <v>138219</v>
+        <v>138174</v>
       </c>
       <c r="C170" t="s">
         <v>988</v>
@@ -22661,7 +22661,7 @@
         <v>5337</v>
       </c>
       <c r="B171" t="n">
-        <v>138265</v>
+        <v>169332</v>
       </c>
       <c r="C171" t="s">
         <v>1484</v>
@@ -22732,7 +22732,7 @@
         <v>5337</v>
       </c>
       <c r="B172" t="n">
-        <v>138266</v>
+        <v>169333</v>
       </c>
       <c r="C172" t="s">
         <v>1491</v>
@@ -22874,7 +22874,7 @@
         <v>5337</v>
       </c>
       <c r="B174" t="n">
-        <v>138267</v>
+        <v>169334</v>
       </c>
       <c r="C174" t="s">
         <v>1510</v>
@@ -23016,7 +23016,7 @@
         <v>5337</v>
       </c>
       <c r="B176" t="n">
-        <v>138268</v>
+        <v>169335</v>
       </c>
       <c r="C176" t="s">
         <v>1528</v>
@@ -23085,7 +23085,7 @@
         <v>5337</v>
       </c>
       <c r="B177" t="n">
-        <v>138269</v>
+        <v>138198</v>
       </c>
       <c r="C177" t="s">
         <v>1537</v>
@@ -23219,7 +23219,7 @@
         <v>5337</v>
       </c>
       <c r="B179" t="n">
-        <v>138270</v>
+        <v>169336</v>
       </c>
       <c r="C179" t="s">
         <v>1555</v>
@@ -23290,7 +23290,7 @@
         <v>5337</v>
       </c>
       <c r="B180" t="n">
-        <v>138271</v>
+        <v>169337</v>
       </c>
       <c r="C180" t="s">
         <v>1564</v>
@@ -23359,7 +23359,7 @@
         <v>5337</v>
       </c>
       <c r="B181" t="n">
-        <v>138272</v>
+        <v>169338</v>
       </c>
       <c r="C181" t="s">
         <v>1570</v>
@@ -23424,7 +23424,7 @@
         <v>5337</v>
       </c>
       <c r="B182" t="n">
-        <v>138273</v>
+        <v>169339</v>
       </c>
       <c r="C182" t="s">
         <v>1580</v>
@@ -23495,7 +23495,7 @@
         <v>5337</v>
       </c>
       <c r="B183" t="n">
-        <v>138274</v>
+        <v>169340</v>
       </c>
       <c r="C183" t="s">
         <v>1589</v>
@@ -23566,7 +23566,7 @@
         <v>5337</v>
       </c>
       <c r="B184" t="n">
-        <v>138275</v>
+        <v>169341</v>
       </c>
       <c r="C184" t="s">
         <v>1598</v>
@@ -23637,7 +23637,7 @@
         <v>5337</v>
       </c>
       <c r="B185" t="n">
-        <v>138276</v>
+        <v>169342</v>
       </c>
       <c r="C185" t="s">
         <v>1608</v>
@@ -23706,7 +23706,7 @@
         <v>5337</v>
       </c>
       <c r="B186" t="n">
-        <v>138277</v>
+        <v>169343</v>
       </c>
       <c r="C186" t="s">
         <v>1617</v>
@@ -23777,7 +23777,7 @@
         <v>5337</v>
       </c>
       <c r="B187" t="n">
-        <v>138278</v>
+        <v>169344</v>
       </c>
       <c r="C187" t="s">
         <v>1626</v>
@@ -23915,7 +23915,7 @@
         <v>5337</v>
       </c>
       <c r="B189" t="n">
-        <v>138279</v>
+        <v>169345</v>
       </c>
       <c r="C189" t="s">
         <v>1645</v>
@@ -23986,7 +23986,7 @@
         <v>5337</v>
       </c>
       <c r="B190" t="n">
-        <v>138280</v>
+        <v>169346</v>
       </c>
       <c r="C190" t="s">
         <v>1652</v>
@@ -24124,7 +24124,7 @@
         <v>5337</v>
       </c>
       <c r="B192" t="n">
-        <v>138281</v>
+        <v>169347</v>
       </c>
       <c r="C192" t="s">
         <v>1670</v>
@@ -24254,7 +24254,7 @@
         <v>5337</v>
       </c>
       <c r="B194" t="n">
-        <v>138282</v>
+        <v>169348</v>
       </c>
       <c r="C194" t="s">
         <v>1684</v>
@@ -24325,7 +24325,7 @@
         <v>5337</v>
       </c>
       <c r="B195" t="n">
-        <v>138283</v>
+        <v>169349</v>
       </c>
       <c r="C195" t="s">
         <v>1693</v>
@@ -24461,7 +24461,7 @@
         <v>5337</v>
       </c>
       <c r="B197" t="n">
-        <v>138284</v>
+        <v>169350</v>
       </c>
       <c r="C197" t="s">
         <v>1711</v>
@@ -24601,7 +24601,7 @@
         <v>5337</v>
       </c>
       <c r="B199" t="n">
-        <v>138285</v>
+        <v>169351</v>
       </c>
       <c r="C199" t="s">
         <v>1729</v>
@@ -24672,7 +24672,7 @@
         <v>5337</v>
       </c>
       <c r="B200" t="n">
-        <v>138286</v>
+        <v>169352</v>
       </c>
       <c r="C200" t="s">
         <v>1736</v>
@@ -24743,7 +24743,7 @@
         <v>5337</v>
       </c>
       <c r="B201" t="n">
-        <v>138287</v>
+        <v>169353</v>
       </c>
       <c r="C201" t="s">
         <v>1746</v>
@@ -24879,7 +24879,7 @@
         <v>5337</v>
       </c>
       <c r="B203" t="n">
-        <v>138288</v>
+        <v>169354</v>
       </c>
       <c r="C203" t="s">
         <v>1765</v>
@@ -24948,7 +24948,7 @@
         <v>5337</v>
       </c>
       <c r="B204" t="n">
-        <v>138289</v>
+        <v>169355</v>
       </c>
       <c r="C204" t="s">
         <v>1774</v>
@@ -25084,7 +25084,7 @@
         <v>5337</v>
       </c>
       <c r="B206" t="n">
-        <v>138290</v>
+        <v>169356</v>
       </c>
       <c r="C206" t="s">
         <v>1790</v>
@@ -25153,7 +25153,7 @@
         <v>5337</v>
       </c>
       <c r="B207" t="n">
-        <v>138291</v>
+        <v>169357</v>
       </c>
       <c r="C207" t="s">
         <v>1800</v>
@@ -25293,7 +25293,7 @@
         <v>5337</v>
       </c>
       <c r="B209" t="n">
-        <v>138292</v>
+        <v>169358</v>
       </c>
       <c r="C209" t="s">
         <v>1818</v>
@@ -25364,7 +25364,7 @@
         <v>5337</v>
       </c>
       <c r="B210" t="n">
-        <v>138293</v>
+        <v>169359</v>
       </c>
       <c r="C210" t="s">
         <v>1827</v>
@@ -25435,7 +25435,7 @@
         <v>5337</v>
       </c>
       <c r="B211" t="n">
-        <v>138294</v>
+        <v>169360</v>
       </c>
       <c r="C211" t="s">
         <v>1834</v>
@@ -25504,7 +25504,7 @@
         <v>5337</v>
       </c>
       <c r="B212" t="n">
-        <v>138295</v>
+        <v>169361</v>
       </c>
       <c r="C212" t="s">
         <v>1843</v>
@@ -25646,7 +25646,7 @@
         <v>5337</v>
       </c>
       <c r="B214" t="n">
-        <v>138296</v>
+        <v>169362</v>
       </c>
       <c r="C214" t="s">
         <v>1860</v>
@@ -25717,7 +25717,7 @@
         <v>5337</v>
       </c>
       <c r="B215" t="n">
-        <v>138297</v>
+        <v>138210</v>
       </c>
       <c r="C215" t="s">
         <v>1867</v>
@@ -25788,7 +25788,7 @@
         <v>5337</v>
       </c>
       <c r="B216" t="n">
-        <v>138298</v>
+        <v>169363</v>
       </c>
       <c r="C216" t="s">
         <v>1876</v>
@@ -25859,7 +25859,7 @@
         <v>5337</v>
       </c>
       <c r="B217" t="n">
-        <v>138299</v>
+        <v>169364</v>
       </c>
       <c r="C217" t="s">
         <v>1886</v>
@@ -25928,7 +25928,7 @@
         <v>5337</v>
       </c>
       <c r="B218" t="n">
-        <v>138300</v>
+        <v>169365</v>
       </c>
       <c r="C218" t="s">
         <v>1895</v>
@@ -26070,7 +26070,7 @@
         <v>5337</v>
       </c>
       <c r="B220" t="n">
-        <v>138301</v>
+        <v>169366</v>
       </c>
       <c r="C220" t="s">
         <v>1913</v>
@@ -26208,7 +26208,7 @@
         <v>5337</v>
       </c>
       <c r="B222" t="n">
-        <v>138302</v>
+        <v>117843</v>
       </c>
       <c r="C222" t="s">
         <v>1929</v>
@@ -26279,7 +26279,7 @@
         <v>5337</v>
       </c>
       <c r="B223" t="n">
-        <v>138303</v>
+        <v>169367</v>
       </c>
       <c r="C223" t="s">
         <v>1936</v>
@@ -26348,7 +26348,7 @@
         <v>5337</v>
       </c>
       <c r="B224" t="n">
-        <v>138304</v>
+        <v>169368</v>
       </c>
       <c r="C224" t="s">
         <v>1945</v>
@@ -26419,7 +26419,7 @@
         <v>5337</v>
       </c>
       <c r="B225" t="n">
-        <v>138305</v>
+        <v>169369</v>
       </c>
       <c r="C225" t="s">
         <v>1954</v>
@@ -26490,7 +26490,7 @@
         <v>5337</v>
       </c>
       <c r="B226" t="n">
-        <v>138306</v>
+        <v>169370</v>
       </c>
       <c r="C226" t="s">
         <v>1963</v>
@@ -26561,7 +26561,7 @@
         <v>5337</v>
       </c>
       <c r="B227" t="n">
-        <v>138307</v>
+        <v>169371</v>
       </c>
       <c r="C227" t="s">
         <v>1972</v>
@@ -26636,7 +26636,7 @@
         <v>5337</v>
       </c>
       <c r="B228" t="n">
-        <v>138308</v>
+        <v>169372</v>
       </c>
       <c r="C228" t="s">
         <v>1981</v>
@@ -26711,7 +26711,7 @@
         <v>5337</v>
       </c>
       <c r="B229" t="n">
-        <v>138309</v>
+        <v>169373</v>
       </c>
       <c r="C229" t="s">
         <v>1990</v>
@@ -26786,7 +26786,7 @@
         <v>5337</v>
       </c>
       <c r="B230" t="n">
-        <v>138310</v>
+        <v>138212</v>
       </c>
       <c r="C230" t="s">
         <v>2000</v>
@@ -26861,7 +26861,7 @@
         <v>5337</v>
       </c>
       <c r="B231" t="n">
-        <v>138311</v>
+        <v>169374</v>
       </c>
       <c r="C231" t="s">
         <v>2008</v>
@@ -26926,7 +26926,7 @@
         <v>5337</v>
       </c>
       <c r="B232" t="n">
-        <v>138312</v>
+        <v>169375</v>
       </c>
       <c r="C232" t="s">
         <v>2017</v>
@@ -27001,7 +27001,7 @@
         <v>5337</v>
       </c>
       <c r="B233" t="n">
-        <v>138313</v>
+        <v>169376</v>
       </c>
       <c r="C233" t="s">
         <v>2026</v>
@@ -27066,7 +27066,7 @@
         <v>5337</v>
       </c>
       <c r="B234" t="n">
-        <v>138314</v>
+        <v>169377</v>
       </c>
       <c r="C234" t="s">
         <v>2035</v>
@@ -27141,7 +27141,7 @@
         <v>5337</v>
       </c>
       <c r="B235" t="n">
-        <v>138315</v>
+        <v>169378</v>
       </c>
       <c r="C235" t="s">
         <v>2044</v>
@@ -27216,7 +27216,7 @@
         <v>5337</v>
       </c>
       <c r="B236" t="n">
-        <v>138316</v>
+        <v>169379</v>
       </c>
       <c r="C236" t="s">
         <v>2054</v>
@@ -27291,7 +27291,7 @@
         <v>5337</v>
       </c>
       <c r="B237" t="n">
-        <v>138317</v>
+        <v>169380</v>
       </c>
       <c r="C237" t="s">
         <v>2064</v>
@@ -27577,7 +27577,7 @@
         <v>5337</v>
       </c>
       <c r="B241" t="n">
-        <v>138318</v>
+        <v>169381</v>
       </c>
       <c r="C241" t="s">
         <v>2098</v>
@@ -27642,7 +27642,7 @@
         <v>5337</v>
       </c>
       <c r="B242" t="n">
-        <v>138319</v>
+        <v>169382</v>
       </c>
       <c r="C242" t="s">
         <v>2105</v>
@@ -27717,7 +27717,7 @@
         <v>5337</v>
       </c>
       <c r="B243" t="n">
-        <v>138320</v>
+        <v>169383</v>
       </c>
       <c r="C243" t="s">
         <v>2114</v>
@@ -27792,7 +27792,7 @@
         <v>5337</v>
       </c>
       <c r="B244" t="n">
-        <v>138321</v>
+        <v>169384</v>
       </c>
       <c r="C244" t="s">
         <v>2123</v>
@@ -27857,7 +27857,7 @@
         <v>5337</v>
       </c>
       <c r="B245" t="n">
-        <v>138322</v>
+        <v>169385</v>
       </c>
       <c r="C245" t="s">
         <v>2132</v>
@@ -27997,7 +27997,7 @@
         <v>5337</v>
       </c>
       <c r="B247" t="n">
-        <v>138323</v>
+        <v>169386</v>
       </c>
       <c r="C247" t="s">
         <v>2150</v>
@@ -28127,7 +28127,7 @@
         <v>5337</v>
       </c>
       <c r="B249" t="n">
-        <v>138324</v>
+        <v>169387</v>
       </c>
       <c r="C249" t="s">
         <v>2166</v>
@@ -28202,7 +28202,7 @@
         <v>5337</v>
       </c>
       <c r="B250" t="n">
-        <v>138325</v>
+        <v>169388</v>
       </c>
       <c r="C250" t="s">
         <v>2175</v>
@@ -28277,7 +28277,7 @@
         <v>5337</v>
       </c>
       <c r="B251" t="n">
-        <v>138326</v>
+        <v>169389</v>
       </c>
       <c r="C251" t="s">
         <v>2185</v>
@@ -28352,7 +28352,7 @@
         <v>5337</v>
       </c>
       <c r="B252" t="n">
-        <v>138327</v>
+        <v>169390</v>
       </c>
       <c r="C252" t="s">
         <v>2194</v>
@@ -28427,7 +28427,7 @@
         <v>5337</v>
       </c>
       <c r="B253" t="n">
-        <v>138328</v>
+        <v>169391</v>
       </c>
       <c r="C253" t="s">
         <v>2201</v>
@@ -28567,7 +28567,7 @@
         <v>5337</v>
       </c>
       <c r="B255" t="n">
-        <v>138329</v>
+        <v>169392</v>
       </c>
       <c r="C255" t="s">
         <v>2220</v>
@@ -28642,7 +28642,7 @@
         <v>5337</v>
       </c>
       <c r="B256" t="n">
-        <v>138330</v>
+        <v>169393</v>
       </c>
       <c r="C256" t="s">
         <v>2227</v>
@@ -28717,7 +28717,7 @@
         <v>5337</v>
       </c>
       <c r="B257" t="n">
-        <v>138331</v>
+        <v>169394</v>
       </c>
       <c r="C257" t="s">
         <v>2234</v>
@@ -28792,7 +28792,7 @@
         <v>5337</v>
       </c>
       <c r="B258" t="n">
-        <v>138332</v>
+        <v>169395</v>
       </c>
       <c r="C258" t="s">
         <v>2243</v>
@@ -28863,7 +28863,7 @@
         <v>5337</v>
       </c>
       <c r="B259" t="n">
-        <v>138333</v>
+        <v>169396</v>
       </c>
       <c r="C259" t="s">
         <v>2250</v>
@@ -28938,7 +28938,7 @@
         <v>5337</v>
       </c>
       <c r="B260" t="n">
-        <v>138334</v>
+        <v>169397</v>
       </c>
       <c r="C260" t="s">
         <v>2258</v>
@@ -29013,7 +29013,7 @@
         <v>5337</v>
       </c>
       <c r="B261" t="n">
-        <v>138335</v>
+        <v>169398</v>
       </c>
       <c r="C261" t="s">
         <v>2268</v>
@@ -29088,7 +29088,7 @@
         <v>5337</v>
       </c>
       <c r="B262" t="n">
-        <v>138174</v>
+        <v>138195</v>
       </c>
       <c r="C262" t="s">
         <v>503</v>
@@ -29163,7 +29163,7 @@
         <v>5337</v>
       </c>
       <c r="B263" t="n">
-        <v>138336</v>
+        <v>169399</v>
       </c>
       <c r="C263" t="s">
         <v>2283</v>
@@ -29238,7 +29238,7 @@
         <v>5337</v>
       </c>
       <c r="B264" t="n">
-        <v>138337</v>
+        <v>169400</v>
       </c>
       <c r="C264" t="s">
         <v>2292</v>
@@ -29463,7 +29463,7 @@
         <v>5337</v>
       </c>
       <c r="B267" t="n">
-        <v>138268</v>
+        <v>138198</v>
       </c>
       <c r="C267" t="s">
         <v>1537</v>
@@ -29593,7 +29593,7 @@
         <v>5337</v>
       </c>
       <c r="B269" t="n">
-        <v>138198</v>
+        <v>138200</v>
       </c>
       <c r="C269" t="s">
         <v>784</v>
@@ -29668,7 +29668,7 @@
         <v>5337</v>
       </c>
       <c r="B270" t="n">
-        <v>138338</v>
+        <v>169401</v>
       </c>
       <c r="C270" t="s">
         <v>2337</v>
@@ -29739,7 +29739,7 @@
         <v>5337</v>
       </c>
       <c r="B271" t="n">
-        <v>138339</v>
+        <v>169402</v>
       </c>
       <c r="C271" t="s">
         <v>2344</v>
@@ -29814,7 +29814,7 @@
         <v>5337</v>
       </c>
       <c r="B272" t="n">
-        <v>138254</v>
+        <v>138201</v>
       </c>
       <c r="C272" t="s">
         <v>1343</v>
@@ -30039,7 +30039,7 @@
         <v>5337</v>
       </c>
       <c r="B275" t="n">
-        <v>138340</v>
+        <v>169403</v>
       </c>
       <c r="C275" t="s">
         <v>2376</v>
@@ -30114,7 +30114,7 @@
         <v>5337</v>
       </c>
       <c r="B276" t="n">
-        <v>138341</v>
+        <v>169404</v>
       </c>
       <c r="C276" t="s">
         <v>2385</v>
@@ -30189,7 +30189,7 @@
         <v>5337</v>
       </c>
       <c r="B277" t="n">
-        <v>138342</v>
+        <v>169405</v>
       </c>
       <c r="C277" t="s">
         <v>2392</v>
@@ -30335,7 +30335,7 @@
         <v>5337</v>
       </c>
       <c r="B279" t="n">
-        <v>138343</v>
+        <v>169406</v>
       </c>
       <c r="C279" t="s">
         <v>2410</v>
@@ -30485,7 +30485,7 @@
         <v>5337</v>
       </c>
       <c r="B281" t="n">
-        <v>138344</v>
+        <v>169407</v>
       </c>
       <c r="C281" t="s">
         <v>2429</v>
@@ -30560,7 +30560,7 @@
         <v>5337</v>
       </c>
       <c r="B282" t="n">
-        <v>138345</v>
+        <v>169408</v>
       </c>
       <c r="C282" t="s">
         <v>2438</v>
@@ -30625,7 +30625,7 @@
         <v>5337</v>
       </c>
       <c r="B283" t="n">
-        <v>138346</v>
+        <v>169409</v>
       </c>
       <c r="C283" t="s">
         <v>2444</v>
@@ -30690,7 +30690,7 @@
         <v>5337</v>
       </c>
       <c r="B284" t="n">
-        <v>138347</v>
+        <v>169410</v>
       </c>
       <c r="C284" t="s">
         <v>2453</v>
@@ -30765,7 +30765,7 @@
         <v>5337</v>
       </c>
       <c r="B285" t="n">
-        <v>138348</v>
+        <v>169411</v>
       </c>
       <c r="C285" t="s">
         <v>2462</v>
@@ -30840,7 +30840,7 @@
         <v>5337</v>
       </c>
       <c r="B286" t="n">
-        <v>138349</v>
+        <v>169412</v>
       </c>
       <c r="C286" t="s">
         <v>2472</v>
@@ -30915,7 +30915,7 @@
         <v>5337</v>
       </c>
       <c r="B287" t="n">
-        <v>138350</v>
+        <v>169413</v>
       </c>
       <c r="C287" t="s">
         <v>2479</v>
@@ -30990,7 +30990,7 @@
         <v>5337</v>
       </c>
       <c r="B288" t="n">
-        <v>138351</v>
+        <v>169414</v>
       </c>
       <c r="C288" t="s">
         <v>2489</v>
@@ -31140,7 +31140,7 @@
         <v>5337</v>
       </c>
       <c r="B290" t="n">
-        <v>138352</v>
+        <v>169415</v>
       </c>
       <c r="C290" t="s">
         <v>2504</v>
@@ -31215,7 +31215,7 @@
         <v>5337</v>
       </c>
       <c r="B291" t="n">
-        <v>138353</v>
+        <v>169416</v>
       </c>
       <c r="C291" t="s">
         <v>2513</v>
@@ -31290,7 +31290,7 @@
         <v>5337</v>
       </c>
       <c r="B292" t="n">
-        <v>138354</v>
+        <v>169417</v>
       </c>
       <c r="C292" t="s">
         <v>2522</v>
@@ -31365,7 +31365,7 @@
         <v>5337</v>
       </c>
       <c r="B293" t="n">
-        <v>138355</v>
+        <v>169418</v>
       </c>
       <c r="C293" t="s">
         <v>2529</v>
@@ -31436,7 +31436,7 @@
         <v>5337</v>
       </c>
       <c r="B294" t="n">
-        <v>138356</v>
+        <v>169419</v>
       </c>
       <c r="C294" t="s">
         <v>2538</v>
@@ -31732,7 +31732,7 @@
         <v>5337</v>
       </c>
       <c r="B298" t="n">
-        <v>138357</v>
+        <v>169420</v>
       </c>
       <c r="C298" t="s">
         <v>2570</v>
@@ -31807,7 +31807,7 @@
         <v>5337</v>
       </c>
       <c r="B299" t="n">
-        <v>138358</v>
+        <v>169421</v>
       </c>
       <c r="C299" t="s">
         <v>2579</v>
@@ -31882,7 +31882,7 @@
         <v>5337</v>
       </c>
       <c r="B300" t="n">
-        <v>138359</v>
+        <v>169422</v>
       </c>
       <c r="C300" t="s">
         <v>2588</v>
@@ -31953,7 +31953,7 @@
         <v>5337</v>
       </c>
       <c r="B301" t="n">
-        <v>138360</v>
+        <v>169423</v>
       </c>
       <c r="C301" t="s">
         <v>2595</v>
@@ -32028,7 +32028,7 @@
         <v>5337</v>
       </c>
       <c r="B302" t="n">
-        <v>138361</v>
+        <v>169424</v>
       </c>
       <c r="C302" t="s">
         <v>2604</v>
@@ -32103,7 +32103,7 @@
         <v>5337</v>
       </c>
       <c r="B303" t="n">
-        <v>138362</v>
+        <v>169425</v>
       </c>
       <c r="C303" t="s">
         <v>2613</v>
@@ -32168,7 +32168,7 @@
         <v>5337</v>
       </c>
       <c r="B304" t="n">
-        <v>138363</v>
+        <v>169426</v>
       </c>
       <c r="C304" t="s">
         <v>2623</v>
@@ -32243,7 +32243,7 @@
         <v>5337</v>
       </c>
       <c r="B305" t="n">
-        <v>138364</v>
+        <v>169427</v>
       </c>
       <c r="C305" t="s">
         <v>2629</v>
@@ -32318,7 +32318,7 @@
         <v>5337</v>
       </c>
       <c r="B306" t="n">
-        <v>138296</v>
+        <v>138210</v>
       </c>
       <c r="C306" t="s">
         <v>1867</v>
@@ -32468,7 +32468,7 @@
         <v>5337</v>
       </c>
       <c r="B308" t="n">
-        <v>138365</v>
+        <v>169428</v>
       </c>
       <c r="C308" t="s">
         <v>2653</v>
@@ -32543,7 +32543,7 @@
         <v>5337</v>
       </c>
       <c r="B309" t="n">
-        <v>138366</v>
+        <v>169429</v>
       </c>
       <c r="C309" t="s">
         <v>2662</v>
@@ -32618,7 +32618,7 @@
         <v>5337</v>
       </c>
       <c r="B310" t="n">
-        <v>138309</v>
+        <v>138212</v>
       </c>
       <c r="C310" t="s">
         <v>2000</v>
@@ -32768,7 +32768,7 @@
         <v>5337</v>
       </c>
       <c r="B312" t="n">
-        <v>138367</v>
+        <v>169430</v>
       </c>
       <c r="C312" t="s">
         <v>2685</v>
@@ -32843,7 +32843,7 @@
         <v>5337</v>
       </c>
       <c r="B313" t="n">
-        <v>138368</v>
+        <v>169431</v>
       </c>
       <c r="C313" t="s">
         <v>2692</v>
@@ -32918,7 +32918,7 @@
         <v>5337</v>
       </c>
       <c r="B314" t="n">
-        <v>138369</v>
+        <v>169432</v>
       </c>
       <c r="C314" t="s">
         <v>2702</v>
@@ -32993,7 +32993,7 @@
         <v>5337</v>
       </c>
       <c r="B315" t="n">
-        <v>138370</v>
+        <v>169433</v>
       </c>
       <c r="C315" t="s">
         <v>2711</v>
@@ -33068,7 +33068,7 @@
         <v>5337</v>
       </c>
       <c r="B316" t="n">
-        <v>138371</v>
+        <v>169434</v>
       </c>
       <c r="C316" t="s">
         <v>2718</v>
@@ -33218,7 +33218,7 @@
         <v>5337</v>
       </c>
       <c r="B318" t="n">
-        <v>138372</v>
+        <v>169435</v>
       </c>
       <c r="C318" t="s">
         <v>2733</v>
@@ -33293,7 +33293,7 @@
         <v>5337</v>
       </c>
       <c r="B319" t="n">
-        <v>138373</v>
+        <v>169436</v>
       </c>
       <c r="C319" t="s">
         <v>2743</v>
@@ -33368,7 +33368,7 @@
         <v>5337</v>
       </c>
       <c r="B320" t="n">
-        <v>138374</v>
+        <v>169437</v>
       </c>
       <c r="C320" t="s">
         <v>2752</v>
@@ -33443,7 +33443,7 @@
         <v>5337</v>
       </c>
       <c r="B321" t="n">
-        <v>138375</v>
+        <v>169438</v>
       </c>
       <c r="C321" t="s">
         <v>2762</v>
@@ -33518,7 +33518,7 @@
         <v>5337</v>
       </c>
       <c r="B322" t="n">
-        <v>138376</v>
+        <v>169439</v>
       </c>
       <c r="C322" t="s">
         <v>2771</v>
@@ -33668,7 +33668,7 @@
         <v>5337</v>
       </c>
       <c r="B324" t="n">
-        <v>138377</v>
+        <v>169440</v>
       </c>
       <c r="C324" t="s">
         <v>2789</v>
@@ -33743,7 +33743,7 @@
         <v>5337</v>
       </c>
       <c r="B325" t="n">
-        <v>138378</v>
+        <v>169441</v>
       </c>
       <c r="C325" t="s">
         <v>2798</v>
@@ -33808,7 +33808,7 @@
         <v>5337</v>
       </c>
       <c r="B326" t="n">
-        <v>138379</v>
+        <v>169442</v>
       </c>
       <c r="C326" t="s">
         <v>2804</v>
@@ -33958,7 +33958,7 @@
         <v>5337</v>
       </c>
       <c r="B328" t="n">
-        <v>138254</v>
+        <v>138201</v>
       </c>
       <c r="C328" t="s">
         <v>1343</v>
@@ -34033,7 +34033,7 @@
         <v>5337</v>
       </c>
       <c r="B329" t="n">
-        <v>138380</v>
+        <v>169443</v>
       </c>
       <c r="C329" t="s">
         <v>2830</v>
@@ -34104,7 +34104,7 @@
         <v>5337</v>
       </c>
       <c r="B330" t="n">
-        <v>138381</v>
+        <v>169444</v>
       </c>
       <c r="C330" t="s">
         <v>2837</v>
@@ -34179,7 +34179,7 @@
         <v>5337</v>
       </c>
       <c r="B331" t="n">
-        <v>138382</v>
+        <v>169445</v>
       </c>
       <c r="C331" t="s">
         <v>2844</v>
@@ -34254,7 +34254,7 @@
         <v>5337</v>
       </c>
       <c r="B332" t="n">
-        <v>138383</v>
+        <v>169446</v>
       </c>
       <c r="C332" t="s">
         <v>2853</v>
@@ -34329,7 +34329,7 @@
         <v>5337</v>
       </c>
       <c r="B333" t="n">
-        <v>138384</v>
+        <v>169447</v>
       </c>
       <c r="C333" t="s">
         <v>2862</v>
@@ -34404,7 +34404,7 @@
         <v>5337</v>
       </c>
       <c r="B334" t="n">
-        <v>138385</v>
+        <v>169448</v>
       </c>
       <c r="C334" t="s">
         <v>2869</v>
@@ -34554,7 +34554,7 @@
         <v>5337</v>
       </c>
       <c r="B336" t="n">
-        <v>138386</v>
+        <v>169449</v>
       </c>
       <c r="C336" t="s">
         <v>2885</v>
@@ -34704,7 +34704,7 @@
         <v>5337</v>
       </c>
       <c r="B338" t="n">
-        <v>138387</v>
+        <v>169450</v>
       </c>
       <c r="C338" t="s">
         <v>2903</v>
@@ -34779,7 +34779,7 @@
         <v>5337</v>
       </c>
       <c r="B339" t="n">
-        <v>138388</v>
+        <v>169451</v>
       </c>
       <c r="C339" t="s">
         <v>2912</v>
@@ -34854,7 +34854,7 @@
         <v>5337</v>
       </c>
       <c r="B340" t="n">
-        <v>138389</v>
+        <v>169452</v>
       </c>
       <c r="C340" t="s">
         <v>2920</v>
@@ -35079,7 +35079,7 @@
         <v>5337</v>
       </c>
       <c r="B343" t="n">
-        <v>138390</v>
+        <v>169453</v>
       </c>
       <c r="C343" t="s">
         <v>2944</v>
@@ -35229,7 +35229,7 @@
         <v>5337</v>
       </c>
       <c r="B345" t="n">
-        <v>138391</v>
+        <v>169454</v>
       </c>
       <c r="C345" t="s">
         <v>2961</v>
@@ -35304,7 +35304,7 @@
         <v>5337</v>
       </c>
       <c r="B346" t="n">
-        <v>138392</v>
+        <v>169455</v>
       </c>
       <c r="C346" t="s">
         <v>2968</v>
@@ -35379,7 +35379,7 @@
         <v>5337</v>
       </c>
       <c r="B347" t="n">
-        <v>138393</v>
+        <v>169456</v>
       </c>
       <c r="C347" t="s">
         <v>2975</v>
@@ -35454,7 +35454,7 @@
         <v>5337</v>
       </c>
       <c r="B348" t="n">
-        <v>138394</v>
+        <v>169457</v>
       </c>
       <c r="C348" t="s">
         <v>2982</v>
@@ -35598,7 +35598,7 @@
         <v>5337</v>
       </c>
       <c r="B350" t="n">
-        <v>138395</v>
+        <v>169458</v>
       </c>
       <c r="C350" t="s">
         <v>2997</v>
@@ -35673,7 +35673,7 @@
         <v>5337</v>
       </c>
       <c r="B351" t="n">
-        <v>138396</v>
+        <v>169459</v>
       </c>
       <c r="C351" t="s">
         <v>3005</v>
@@ -35748,7 +35748,7 @@
         <v>5337</v>
       </c>
       <c r="B352" t="n">
-        <v>138397</v>
+        <v>169460</v>
       </c>
       <c r="C352" t="s">
         <v>3013</v>
@@ -35823,7 +35823,7 @@
         <v>5337</v>
       </c>
       <c r="B353" t="n">
-        <v>138398</v>
+        <v>169461</v>
       </c>
       <c r="C353" t="s">
         <v>3020</v>
@@ -35898,7 +35898,7 @@
         <v>5337</v>
       </c>
       <c r="B354" t="n">
-        <v>138399</v>
+        <v>169462</v>
       </c>
       <c r="C354" t="s">
         <v>3028</v>
@@ -36048,7 +36048,7 @@
         <v>5337</v>
       </c>
       <c r="B356" t="n">
-        <v>138400</v>
+        <v>169463</v>
       </c>
       <c r="C356" t="s">
         <v>3044</v>
@@ -36123,7 +36123,7 @@
         <v>5337</v>
       </c>
       <c r="B357" t="n">
-        <v>138401</v>
+        <v>169464</v>
       </c>
       <c r="C357" t="s">
         <v>3052</v>
@@ -36192,7 +36192,7 @@
         <v>5337</v>
       </c>
       <c r="B358" t="n">
-        <v>138402</v>
+        <v>169465</v>
       </c>
       <c r="C358" t="s">
         <v>3061</v>
@@ -36417,7 +36417,7 @@
         <v>5337</v>
       </c>
       <c r="B361" t="n">
-        <v>138403</v>
+        <v>169466</v>
       </c>
       <c r="C361" t="s">
         <v>3085</v>
@@ -36492,7 +36492,7 @@
         <v>5337</v>
       </c>
       <c r="B362" t="n">
-        <v>138404</v>
+        <v>169467</v>
       </c>
       <c r="C362" t="s">
         <v>3092</v>
@@ -36567,7 +36567,7 @@
         <v>5337</v>
       </c>
       <c r="B363" t="n">
-        <v>138405</v>
+        <v>169468</v>
       </c>
       <c r="C363" t="s">
         <v>3101</v>
@@ -36638,7 +36638,7 @@
         <v>5337</v>
       </c>
       <c r="B364" t="n">
-        <v>138406</v>
+        <v>169469</v>
       </c>
       <c r="C364" t="s">
         <v>3108</v>
@@ -36703,7 +36703,7 @@
         <v>5337</v>
       </c>
       <c r="B365" t="n">
-        <v>138254</v>
+        <v>138201</v>
       </c>
       <c r="C365" t="s">
         <v>1343</v>
@@ -36774,7 +36774,7 @@
         <v>5337</v>
       </c>
       <c r="B366" t="n">
-        <v>138407</v>
+        <v>169470</v>
       </c>
       <c r="C366" t="s">
         <v>3123</v>
@@ -36845,7 +36845,7 @@
         <v>5337</v>
       </c>
       <c r="B367" t="n">
-        <v>138408</v>
+        <v>169471</v>
       </c>
       <c r="C367" t="s">
         <v>3130</v>
@@ -36916,7 +36916,7 @@
         <v>5337</v>
       </c>
       <c r="B368" t="n">
-        <v>138409</v>
+        <v>169472</v>
       </c>
       <c r="C368" t="s">
         <v>3137</v>
@@ -36987,7 +36987,7 @@
         <v>5337</v>
       </c>
       <c r="B369" t="n">
-        <v>138410</v>
+        <v>169473</v>
       </c>
       <c r="C369" t="s">
         <v>3145</v>
@@ -37058,7 +37058,7 @@
         <v>5337</v>
       </c>
       <c r="B370" t="n">
-        <v>138411</v>
+        <v>169474</v>
       </c>
       <c r="C370" t="s">
         <v>3152</v>
@@ -37129,7 +37129,7 @@
         <v>5337</v>
       </c>
       <c r="B371" t="n">
-        <v>138412</v>
+        <v>169475</v>
       </c>
       <c r="C371" t="s">
         <v>3158</v>
@@ -37200,7 +37200,7 @@
         <v>5337</v>
       </c>
       <c r="B372" t="n">
-        <v>138413</v>
+        <v>169476</v>
       </c>
       <c r="C372" t="s">
         <v>3166</v>
@@ -37340,7 +37340,7 @@
         <v>5337</v>
       </c>
       <c r="B374" t="n">
-        <v>138414</v>
+        <v>169477</v>
       </c>
       <c r="C374" t="s">
         <v>3179</v>
@@ -37411,7 +37411,7 @@
         <v>5337</v>
       </c>
       <c r="B375" t="n">
-        <v>138415</v>
+        <v>169478</v>
       </c>
       <c r="C375" t="s">
         <v>3187</v>
@@ -37482,7 +37482,7 @@
         <v>5337</v>
       </c>
       <c r="B376" t="n">
-        <v>138416</v>
+        <v>169479</v>
       </c>
       <c r="C376" t="s">
         <v>3193</v>
@@ -37549,7 +37549,7 @@
         <v>5337</v>
       </c>
       <c r="B377" t="n">
-        <v>138417</v>
+        <v>169480</v>
       </c>
       <c r="C377" t="s">
         <v>3200</v>
@@ -37620,7 +37620,7 @@
         <v>5337</v>
       </c>
       <c r="B378" t="n">
-        <v>138418</v>
+        <v>169481</v>
       </c>
       <c r="C378" t="s">
         <v>3208</v>
@@ -37691,7 +37691,7 @@
         <v>5337</v>
       </c>
       <c r="B379" t="n">
-        <v>138419</v>
+        <v>169482</v>
       </c>
       <c r="C379" t="s">
         <v>3216</v>
@@ -37762,7 +37762,7 @@
         <v>5337</v>
       </c>
       <c r="B380" t="n">
-        <v>138420</v>
+        <v>169483</v>
       </c>
       <c r="C380" t="s">
         <v>3224</v>
@@ -37961,7 +37961,7 @@
         <v>5337</v>
       </c>
       <c r="B383" t="n">
-        <v>138421</v>
+        <v>169484</v>
       </c>
       <c r="C383" t="s">
         <v>3246</v>
@@ -38103,7 +38103,7 @@
         <v>5337</v>
       </c>
       <c r="B385" t="n">
-        <v>138422</v>
+        <v>169485</v>
       </c>
       <c r="C385" t="s">
         <v>3262</v>
@@ -38174,7 +38174,7 @@
         <v>5337</v>
       </c>
       <c r="B386" t="n">
-        <v>138423</v>
+        <v>169486</v>
       </c>
       <c r="C386" t="s">
         <v>3268</v>
@@ -38245,7 +38245,7 @@
         <v>5337</v>
       </c>
       <c r="B387" t="n">
-        <v>138424</v>
+        <v>169487</v>
       </c>
       <c r="C387" t="s">
         <v>3276</v>
@@ -38316,7 +38316,7 @@
         <v>5337</v>
       </c>
       <c r="B388" t="n">
-        <v>138425</v>
+        <v>169488</v>
       </c>
       <c r="C388" t="s">
         <v>3284</v>
@@ -38383,7 +38383,7 @@
         <v>5337</v>
       </c>
       <c r="B389" t="n">
-        <v>138426</v>
+        <v>169489</v>
       </c>
       <c r="C389" t="s">
         <v>3291</v>
@@ -38454,7 +38454,7 @@
         <v>5337</v>
       </c>
       <c r="B390" t="n">
-        <v>138427</v>
+        <v>169490</v>
       </c>
       <c r="C390" t="s">
         <v>3299</v>
@@ -38525,7 +38525,7 @@
         <v>5337</v>
       </c>
       <c r="B391" t="n">
-        <v>138428</v>
+        <v>169491</v>
       </c>
       <c r="C391" t="s">
         <v>3306</v>
@@ -38596,7 +38596,7 @@
         <v>5337</v>
       </c>
       <c r="B392" t="n">
-        <v>138429</v>
+        <v>169492</v>
       </c>
       <c r="C392" t="s">
         <v>3313</v>
@@ -38667,7 +38667,7 @@
         <v>5337</v>
       </c>
       <c r="B393" t="n">
-        <v>138430</v>
+        <v>169493</v>
       </c>
       <c r="C393" t="s">
         <v>3321</v>
@@ -38738,7 +38738,7 @@
         <v>5337</v>
       </c>
       <c r="B394" t="n">
-        <v>138431</v>
+        <v>169494</v>
       </c>
       <c r="C394" t="s">
         <v>3328</v>
@@ -38809,7 +38809,7 @@
         <v>5337</v>
       </c>
       <c r="B395" t="n">
-        <v>138432</v>
+        <v>169495</v>
       </c>
       <c r="C395" t="s">
         <v>3335</v>
@@ -38874,7 +38874,7 @@
         <v>5337</v>
       </c>
       <c r="B396" t="n">
-        <v>138433</v>
+        <v>169496</v>
       </c>
       <c r="C396" t="s">
         <v>3342</v>
@@ -38939,7 +38939,7 @@
         <v>5337</v>
       </c>
       <c r="B397" t="n">
-        <v>138434</v>
+        <v>169497</v>
       </c>
       <c r="C397" t="s">
         <v>3348</v>
@@ -39008,7 +39008,7 @@
         <v>5337</v>
       </c>
       <c r="B398" t="n">
-        <v>138435</v>
+        <v>169498</v>
       </c>
       <c r="C398" t="s">
         <v>3356</v>
@@ -39142,7 +39142,7 @@
         <v>5337</v>
       </c>
       <c r="B400" t="n">
-        <v>138436</v>
+        <v>169499</v>
       </c>
       <c r="C400" t="s">
         <v>3370</v>
@@ -39339,7 +39339,7 @@
         <v>5337</v>
       </c>
       <c r="B403" t="n">
-        <v>138437</v>
+        <v>169500</v>
       </c>
       <c r="C403" t="s">
         <v>3387</v>
@@ -39404,7 +39404,7 @@
         <v>5337</v>
       </c>
       <c r="B404" t="n">
-        <v>138438</v>
+        <v>169501</v>
       </c>
       <c r="C404" t="s">
         <v>3394</v>
@@ -39575,7 +39575,7 @@
         <v>5337</v>
       </c>
       <c r="B407" t="n">
-        <v>138439</v>
+        <v>169502</v>
       </c>
       <c r="C407" t="s">
         <v>3410</v>
@@ -39632,7 +39632,7 @@
         <v>5337</v>
       </c>
       <c r="B408" t="n">
-        <v>138440</v>
+        <v>169503</v>
       </c>
       <c r="C408" t="s">
         <v>3417</v>
@@ -39689,7 +39689,7 @@
         <v>5337</v>
       </c>
       <c r="B409" t="n">
-        <v>138441</v>
+        <v>169504</v>
       </c>
       <c r="C409" t="s">
         <v>3424</v>
